--- a/TestData/Collaboration.xlsx
+++ b/TestData/Collaboration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>TestCaseType</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>chandra@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,7 +454,7 @@
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45" bestFit="1" customWidth="1"/>
@@ -511,10 +514,48 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -526,6 +567,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
